--- a/Texts/Город Сокровищ/Все персонажи/Снизел.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Снизел.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ îéëïíô îå ðïèâïìý âòóàóû ô\níåîÿ îà ðôóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heh-heh-heh. I found a so-called\n\"Secret Room\" earlier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? Where was it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha! Like I\'m going to tell\nyou that!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Недавно я нашёл так\nназываемую \"Секретную Комнату\".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Где?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Îåäàâîï ÿ îàšæì óàë\nîàèúâàåíôý \"Òåëñåóîôý Ëïíîàóô\".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Ãäå?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1506.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà! Óàë ÿ é óåáå é òëàèàì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха! Так я и тебе и сказал!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1604.ssb</t>
   </si>
 </sst>
 </file>
@@ -85,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,11 +153,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +181,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,17 +520,69 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>133</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>108</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>111</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Снизел.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Снизел.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,72 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um1604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heh-heh-heh...\nThe legendary treasure will be claimed by\n[CS:N]Sneasel[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/D73P11A/us3103.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе... Легендарное сокровище\nзаберу только я, [CS:N]Снизел[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå... Ìåãåîäàñîïå òïëñïâéþå\nèàáåñô óïìûëï ÿ, [CS:N]Òîéèåì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? That legendary treasure\nwill need to be found by someone of legend...\nI\'d say that\'s me!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? Это легендарное сокровище нужно\nнайти кому-то такому же легендарному...\nВроде меня!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Üóï ìåãåîäàñîïå òïëñïâéþå îôçîï\nîàêóé ëïíô-óï óàëïíô çå ìåãåîäàñîïíô...\nÂñïäå íåîÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? [CS:I]Sky Gift[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It isn\'t really treasure…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s no point in treasure if \nyou don\'t get to keep it yourself.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? [CS:I]Небесный Подарок[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это не совсем сокровище...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В сокровище нет смысла, если\nего нельзя забрать себе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? [CS:I]Îåáåòîúê Ðïäàñïë[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îå òïâòåí òïëñïâéþå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òïëñïâéþå îåó òíúòìà, åòìé\nåãï îåìûèÿ èàáñàóû òåáå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P27A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh... Oof…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух... Уф...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö... Ôõ...</t>
   </si>
 </sst>
 </file>
@@ -121,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,11 +228,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -187,6 +264,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,20 +652,117 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>111</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
+        <v>77</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
